--- a/wp_pj8/habit/day.xlsx
+++ b/wp_pj8/habit/day.xlsx
@@ -436,462 +436,642 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-06-05</t>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-06-06</t>
+          <t>2021-09-04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>2021-09-05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-09-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-09-07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-09-08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-09-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-09-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-06-13</t>
+          <t>2021-09-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-09-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-09-13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-06-16</t>
+          <t>2021-09-14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-09-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-06-19</t>
+          <t>2021-09-17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-09-19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-09-20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-09-21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2021-09-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021-07-01</t>
+          <t>2021-09-29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>2021-10-01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021-07-04</t>
+          <t>2021-10-02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2021-10-03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2021-10-04</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-07-07</t>
+          <t>2021-10-05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-10-06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2021-10-07</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-07-10</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-07-11</t>
+          <t>2021-10-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-10-10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-10-12</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-10-13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-10-14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>2021-10-15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2021-10-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>2021-10-17</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2021-10-18</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>2021-10-19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-10-20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021-07-23</t>
+          <t>2021-10-21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021-07-24</t>
+          <t>2021-10-22</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>2021-10-23</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>2021-10-24</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>2021-10-25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021-07-30</t>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021-07-31</t>
+          <t>2021-10-29</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021-08-01</t>
+          <t>2021-10-30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021-08-02</t>
+          <t>2021-10-31</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>2021-11-01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021-08-05</t>
+          <t>2021-11-03</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-11-04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021-08-07</t>
+          <t>2021-11-05</t>
         </is>
       </c>
     </row>
